--- a/Design/Content/Normalisation 2  Electric Boogaloo.xlsx
+++ b/Design/Content/Normalisation 2  Electric Boogaloo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
   <si>
     <t>UNF</t>
   </si>
@@ -54,9 +54,6 @@
     <t>ItemStatus</t>
   </si>
   <si>
-    <t>DonatorCode</t>
-  </si>
-  <si>
     <t>DonatorFirstName</t>
   </si>
   <si>
@@ -105,18 +102,43 @@
     <t>StaffID ★</t>
   </si>
   <si>
-    <t>DonatorCode ★</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DonationCode </t>
+    <t>ItemCategory ★</t>
+  </si>
+  <si>
+    <t>ItemCatagory ★</t>
+  </si>
+  <si>
+    <t>DonatorID</t>
+  </si>
+  <si>
+    <t>DonatorID ★</t>
+  </si>
+  <si>
+    <t>ItemCategoryDescription</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -213,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -265,6 +287,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -571,14 +602,18 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -615,15 +650,15 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="7"/>
     </row>
@@ -641,7 +676,7 @@
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -655,11 +690,11 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="11" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -673,7 +708,7 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
@@ -684,172 +719,172 @@
         <v>8</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="11" t="s">
-        <v>9</v>
+      <c r="C7" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>9</v>
+      <c r="A8" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="11" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="12" t="s">
-        <v>11</v>
+      <c r="C9" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="D11" s="9"/>
       <c r="E11" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C12" s="10"/>
       <c r="D12" s="9"/>
       <c r="E12" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="8" t="s">
-        <v>27</v>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="11" t="s">
-        <v>5</v>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="11" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>
@@ -857,27 +892,27 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="18" t="s">
-        <v>26</v>
+      <c r="G17" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="8" t="s">
@@ -891,11 +926,11 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="11" t="s">
@@ -909,33 +944,33 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="11" t="s">
-        <v>8</v>
+      <c r="G20" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="11" t="s">
-        <v>9</v>
+      <c r="E21" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="11" t="s">
@@ -944,16 +979,16 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>23</v>
+      <c r="A22" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="11" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="12" t="s">
@@ -962,14 +997,16 @@
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+      <c r="A23" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="B23" s="9"/>
       <c r="C23" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="12" t="s">
-        <v>11</v>
+      <c r="E23" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="16"/>
@@ -979,54 +1016,58 @@
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
+      <c r="E24" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="F24" s="9"/>
       <c r="G24" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="E25" s="10"/>
       <c r="F25" s="9"/>
       <c r="G25" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="12" t="s">
-        <v>23</v>
+      <c r="C26" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="12" t="s">
-        <v>27</v>
+      <c r="E26" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
+      <c r="C27" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="14"/>
+      <c r="E27" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="F27" s="15"/>
       <c r="G27" s="11" t="s">
         <v>5</v>
@@ -1038,47 +1079,51 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="16"/>
       <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="G30" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="7"/>
       <c r="C31" s="10"/>
       <c r="D31" s="7"/>
       <c r="E31" s="16"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="14"/>
+      <c r="G31" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="7"/>
       <c r="E32" s="16"/>
       <c r="F32" s="2"/>
@@ -1096,15 +1141,18 @@
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
       <c r="C34" s="7"/>
       <c r="E34" s="16"/>
       <c r="F34" s="17"/>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="7"/>
       <c r="E35" s="16"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E36" s="16"/>
@@ -1142,7 +1190,7 @@
       <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E43" s="17"/>
+      <c r="E43" s="16"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
     </row>
@@ -1157,6 +1205,7 @@
       <c r="G45" s="17"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E46" s="17"/>
       <c r="G46" s="17"/>
     </row>
   </sheetData>
